--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ifnk</t>
   </si>
   <si>
     <t>Ifnar1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H2">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.0845657244679</v>
+        <v>21.20338333333333</v>
       </c>
       <c r="N2">
-        <v>19.0845657244679</v>
+        <v>63.61015</v>
       </c>
       <c r="O2">
-        <v>0.151320364423607</v>
+        <v>0.1585031951394179</v>
       </c>
       <c r="P2">
-        <v>0.151320364423607</v>
+        <v>0.1619144072927482</v>
       </c>
       <c r="Q2">
-        <v>15.97713386786755</v>
+        <v>1.22061516835</v>
       </c>
       <c r="R2">
-        <v>15.97713386786755</v>
+        <v>10.98553651515</v>
       </c>
       <c r="S2">
-        <v>0.151320364423607</v>
+        <v>0.004942101963716899</v>
       </c>
       <c r="T2">
-        <v>0.151320364423607</v>
+        <v>0.005262301345548255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H3">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.8322724416595</v>
+        <v>20.117406</v>
       </c>
       <c r="N3">
-        <v>18.8322724416595</v>
+        <v>60.35221800000001</v>
       </c>
       <c r="O3">
-        <v>0.149319946282195</v>
+        <v>0.1503851097152057</v>
       </c>
       <c r="P3">
-        <v>0.149319946282195</v>
+        <v>0.1536216092286016</v>
       </c>
       <c r="Q3">
-        <v>15.76592007282554</v>
+        <v>1.158098711202</v>
       </c>
       <c r="R3">
-        <v>15.76592007282554</v>
+        <v>10.422888400818</v>
       </c>
       <c r="S3">
-        <v>0.149319946282195</v>
+        <v>0.004688981476894337</v>
       </c>
       <c r="T3">
-        <v>0.149319946282195</v>
+        <v>0.004992781151879403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H4">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.5273056575281</v>
+        <v>38.321269</v>
       </c>
       <c r="N4">
-        <v>34.5273056575281</v>
+        <v>114.963807</v>
       </c>
       <c r="O4">
-        <v>0.2737649129717407</v>
+        <v>0.2864657721274259</v>
       </c>
       <c r="P4">
-        <v>0.2737649129717407</v>
+        <v>0.2926309192876121</v>
       </c>
       <c r="Q4">
-        <v>28.90541983252215</v>
+        <v>2.206040492523</v>
       </c>
       <c r="R4">
-        <v>28.90541983252215</v>
+        <v>19.854364432707</v>
       </c>
       <c r="S4">
-        <v>0.2737649129717407</v>
+        <v>0.00893195278318115</v>
       </c>
       <c r="T4">
-        <v>0.2737649129717407</v>
+        <v>0.00951065508044628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H5">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.2981699583186</v>
+        <v>45.67557266666667</v>
       </c>
       <c r="N5">
-        <v>45.2981699583186</v>
+        <v>137.026718</v>
       </c>
       <c r="O5">
-        <v>0.3591664429139831</v>
+        <v>0.3414419337553518</v>
       </c>
       <c r="P5">
-        <v>0.3591664429139831</v>
+        <v>0.348790245397009</v>
       </c>
       <c r="Q5">
-        <v>37.92252524067592</v>
+        <v>2.629405691702</v>
       </c>
       <c r="R5">
-        <v>37.92252524067592</v>
+        <v>23.664651225318</v>
       </c>
       <c r="S5">
-        <v>0.3591664429139831</v>
+        <v>0.01064609990873283</v>
       </c>
       <c r="T5">
-        <v>0.3591664429139831</v>
+        <v>0.01133586200484453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.057567</v>
+      </c>
+      <c r="H6">
+        <v>0.172701</v>
+      </c>
+      <c r="I6">
+        <v>0.03117982548787027</v>
+      </c>
+      <c r="J6">
+        <v>0.03250051328683672</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.4549615</v>
+      </c>
+      <c r="N6">
+        <v>16.909923</v>
+      </c>
+      <c r="O6">
+        <v>0.06320398926259876</v>
+      </c>
+      <c r="P6">
+        <v>0.04304281879402911</v>
+      </c>
+      <c r="Q6">
+        <v>0.4867267686705</v>
+      </c>
+      <c r="R6">
+        <v>2.920360612023</v>
+      </c>
+      <c r="S6">
+        <v>0.001970689355345056</v>
+      </c>
+      <c r="T6">
+        <v>0.001398913704118248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H7">
+        <v>2.832728</v>
+      </c>
+      <c r="I7">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J7">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.20338333333333</v>
+      </c>
+      <c r="N7">
+        <v>63.61015</v>
+      </c>
+      <c r="O7">
+        <v>0.1585031951394179</v>
+      </c>
+      <c r="P7">
+        <v>0.1619144072927482</v>
+      </c>
+      <c r="Q7">
+        <v>20.02113922102223</v>
+      </c>
+      <c r="R7">
+        <v>180.1902529892</v>
+      </c>
+      <c r="S7">
+        <v>0.08106282309584684</v>
+      </c>
+      <c r="T7">
+        <v>0.08631489317359033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H8">
+        <v>2.832728</v>
+      </c>
+      <c r="I8">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J8">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.117406</v>
+      </c>
+      <c r="N8">
+        <v>60.35221800000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1503851097152057</v>
+      </c>
+      <c r="P8">
+        <v>0.1536216092286016</v>
+      </c>
+      <c r="Q8">
+        <v>18.995713087856</v>
+      </c>
+      <c r="R8">
+        <v>170.961417790704</v>
+      </c>
+      <c r="S8">
+        <v>0.07691101453425252</v>
+      </c>
+      <c r="T8">
+        <v>0.08189408843493114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.832728</v>
+      </c>
+      <c r="I9">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J9">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>38.321269</v>
+      </c>
+      <c r="N9">
+        <v>114.963807</v>
+      </c>
+      <c r="O9">
+        <v>0.2864657721274259</v>
+      </c>
+      <c r="P9">
+        <v>0.2926309192876121</v>
+      </c>
+      <c r="Q9">
+        <v>36.18457723061067</v>
+      </c>
+      <c r="R9">
+        <v>325.661195075496</v>
+      </c>
+      <c r="S9">
+        <v>0.146506347638955</v>
+      </c>
+      <c r="T9">
+        <v>0.1559985115588354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.832728</v>
+      </c>
+      <c r="I10">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J10">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>45.67557266666667</v>
+      </c>
+      <c r="N10">
+        <v>137.026718</v>
+      </c>
+      <c r="O10">
+        <v>0.3414419337553518</v>
+      </c>
+      <c r="P10">
+        <v>0.348790245397009</v>
+      </c>
+      <c r="Q10">
+        <v>43.12882453630046</v>
+      </c>
+      <c r="R10">
+        <v>388.1594208267041</v>
+      </c>
+      <c r="S10">
+        <v>0.1746226443521748</v>
+      </c>
+      <c r="T10">
+        <v>0.185936466524567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.832728</v>
+      </c>
+      <c r="I11">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J11">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.4549615</v>
+      </c>
+      <c r="N11">
+        <v>16.909923</v>
+      </c>
+      <c r="O11">
+        <v>0.06320398926259876</v>
+      </c>
+      <c r="P11">
+        <v>0.04304281879402911</v>
+      </c>
+      <c r="Q11">
+        <v>7.983535393324001</v>
+      </c>
+      <c r="R11">
+        <v>47.901212359944</v>
+      </c>
+      <c r="S11">
+        <v>0.03232423041087133</v>
+      </c>
+      <c r="T11">
+        <v>0.02294568079651813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.85821</v>
+      </c>
+      <c r="I12">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J12">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.20338333333333</v>
+      </c>
+      <c r="N12">
+        <v>63.61015</v>
+      </c>
+      <c r="O12">
+        <v>0.1585031951394179</v>
+      </c>
+      <c r="P12">
+        <v>0.1619144072927482</v>
+      </c>
+      <c r="Q12">
+        <v>13.13344631461111</v>
+      </c>
+      <c r="R12">
+        <v>118.2010168315</v>
+      </c>
+      <c r="S12">
+        <v>0.05317550732189379</v>
+      </c>
+      <c r="T12">
+        <v>0.05662075484977635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.837175657991715</v>
-      </c>
-      <c r="H6">
-        <v>0.837175657991715</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8.37795956763579</v>
-      </c>
-      <c r="N6">
-        <v>8.37795956763579</v>
-      </c>
-      <c r="O6">
-        <v>0.0664283334084742</v>
-      </c>
-      <c r="P6">
-        <v>0.0664283334084742</v>
-      </c>
-      <c r="Q6">
-        <v>7.013823813663477</v>
-      </c>
-      <c r="R6">
-        <v>7.013823813663477</v>
-      </c>
-      <c r="S6">
-        <v>0.0664283334084742</v>
-      </c>
-      <c r="T6">
-        <v>0.0664283334084742</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.85821</v>
+      </c>
+      <c r="I13">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J13">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.117406</v>
+      </c>
+      <c r="N13">
+        <v>60.35221800000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1503851097152057</v>
+      </c>
+      <c r="P13">
+        <v>0.1536216092286016</v>
+      </c>
+      <c r="Q13">
+        <v>12.46078833442</v>
+      </c>
+      <c r="R13">
+        <v>112.14709500978</v>
+      </c>
+      <c r="S13">
+        <v>0.05045200821176384</v>
+      </c>
+      <c r="T13">
+        <v>0.05372079990407599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.85821</v>
+      </c>
+      <c r="I14">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J14">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>38.321269</v>
+      </c>
+      <c r="N14">
+        <v>114.963807</v>
+      </c>
+      <c r="O14">
+        <v>0.2864657721274259</v>
+      </c>
+      <c r="P14">
+        <v>0.2926309192876121</v>
+      </c>
+      <c r="Q14">
+        <v>23.73632175616334</v>
+      </c>
+      <c r="R14">
+        <v>213.62689580547</v>
+      </c>
+      <c r="S14">
+        <v>0.09610508324349624</v>
+      </c>
+      <c r="T14">
+        <v>0.1023317431690383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.85821</v>
+      </c>
+      <c r="I15">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J15">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>45.67557266666667</v>
+      </c>
+      <c r="N15">
+        <v>137.026718</v>
+      </c>
+      <c r="O15">
+        <v>0.3414419337553518</v>
+      </c>
+      <c r="P15">
+        <v>0.348790245397009</v>
+      </c>
+      <c r="Q15">
+        <v>28.29160196164223</v>
+      </c>
+      <c r="R15">
+        <v>254.62441765478</v>
+      </c>
+      <c r="S15">
+        <v>0.1145487826440289</v>
+      </c>
+      <c r="T15">
+        <v>0.1219704120764915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.85821</v>
+      </c>
+      <c r="I16">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J16">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.4549615</v>
+      </c>
+      <c r="N16">
+        <v>16.909923</v>
+      </c>
+      <c r="O16">
+        <v>0.06320398926259876</v>
+      </c>
+      <c r="P16">
+        <v>0.04304281879402911</v>
+      </c>
+      <c r="Q16">
+        <v>5.237031336305001</v>
+      </c>
+      <c r="R16">
+        <v>31.42218801783</v>
+      </c>
+      <c r="S16">
+        <v>0.02120401541968915</v>
+      </c>
+      <c r="T16">
+        <v>0.01505188408943533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.225077</v>
+      </c>
+      <c r="H17">
+        <v>0.450154</v>
+      </c>
+      <c r="I17">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J17">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.20338333333333</v>
+      </c>
+      <c r="N17">
+        <v>63.61015</v>
+      </c>
+      <c r="O17">
+        <v>0.1585031951394179</v>
+      </c>
+      <c r="P17">
+        <v>0.1619144072927482</v>
+      </c>
+      <c r="Q17">
+        <v>4.772393910516667</v>
+      </c>
+      <c r="R17">
+        <v>28.6343634631</v>
+      </c>
+      <c r="S17">
+        <v>0.01932276275796043</v>
+      </c>
+      <c r="T17">
+        <v>0.01371645792383327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.225077</v>
+      </c>
+      <c r="H18">
+        <v>0.450154</v>
+      </c>
+      <c r="I18">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J18">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.117406</v>
+      </c>
+      <c r="N18">
+        <v>60.35221800000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1503851097152057</v>
+      </c>
+      <c r="P18">
+        <v>0.1536216092286016</v>
+      </c>
+      <c r="Q18">
+        <v>4.527965390262001</v>
+      </c>
+      <c r="R18">
+        <v>27.167792341572</v>
+      </c>
+      <c r="S18">
+        <v>0.01833310549229501</v>
+      </c>
+      <c r="T18">
+        <v>0.01301393973771502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.225077</v>
+      </c>
+      <c r="H19">
+        <v>0.450154</v>
+      </c>
+      <c r="I19">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J19">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>38.321269</v>
+      </c>
+      <c r="N19">
+        <v>114.963807</v>
+      </c>
+      <c r="O19">
+        <v>0.2864657721274259</v>
+      </c>
+      <c r="P19">
+        <v>0.2926309192876121</v>
+      </c>
+      <c r="Q19">
+        <v>8.625236262713001</v>
+      </c>
+      <c r="R19">
+        <v>51.751417576278</v>
+      </c>
+      <c r="S19">
+        <v>0.03492238846179345</v>
+      </c>
+      <c r="T19">
+        <v>0.02479000947929204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.225077</v>
+      </c>
+      <c r="H20">
+        <v>0.450154</v>
+      </c>
+      <c r="I20">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J20">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>45.67557266666667</v>
+      </c>
+      <c r="N20">
+        <v>137.026718</v>
+      </c>
+      <c r="O20">
+        <v>0.3414419337553518</v>
+      </c>
+      <c r="P20">
+        <v>0.348790245397009</v>
+      </c>
+      <c r="Q20">
+        <v>10.28052086909534</v>
+      </c>
+      <c r="R20">
+        <v>61.68312521457201</v>
+      </c>
+      <c r="S20">
+        <v>0.04162440685041533</v>
+      </c>
+      <c r="T20">
+        <v>0.02954750479110593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.225077</v>
+      </c>
+      <c r="H21">
+        <v>0.450154</v>
+      </c>
+      <c r="I21">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J21">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.4549615</v>
+      </c>
+      <c r="N21">
+        <v>16.909923</v>
+      </c>
+      <c r="O21">
+        <v>0.06320398926259876</v>
+      </c>
+      <c r="P21">
+        <v>0.04304281879402911</v>
+      </c>
+      <c r="Q21">
+        <v>1.9030173695355</v>
+      </c>
+      <c r="R21">
+        <v>7.612069478142</v>
+      </c>
+      <c r="S21">
+        <v>0.007705054076693229</v>
+      </c>
+      <c r="T21">
+        <v>0.003646340203957394</v>
       </c>
     </row>
   </sheetData>
